--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Adm</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.600084</v>
+        <v>11.43620533333333</v>
       </c>
       <c r="H2">
-        <v>37.800252</v>
+        <v>34.308616</v>
       </c>
       <c r="I2">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="J2">
-        <v>0.4109984227877578</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09614899999999998</v>
+        <v>0.6684413333333333</v>
       </c>
       <c r="N2">
-        <v>0.288447</v>
+        <v>2.005324</v>
       </c>
       <c r="O2">
-        <v>0.2085078145161115</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.2085078145161115</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.211485476516</v>
+        <v>7.644432341287112</v>
       </c>
       <c r="R2">
-        <v>10.903369288644</v>
+        <v>68.799891071584</v>
       </c>
       <c r="S2">
-        <v>0.08569638290504417</v>
+        <v>0.3907515546611098</v>
       </c>
       <c r="T2">
-        <v>0.08569638290504418</v>
+        <v>0.3907515546611098</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.600084</v>
+        <v>17.59249933333333</v>
       </c>
       <c r="H3">
-        <v>37.800252</v>
+        <v>52.77749799999999</v>
       </c>
       <c r="I3">
-        <v>0.4109984227877578</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="J3">
-        <v>0.4109984227877578</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.36498</v>
+        <v>0.6684413333333333</v>
       </c>
       <c r="N3">
-        <v>1.09494</v>
+        <v>2.005324</v>
       </c>
       <c r="O3">
-        <v>0.7914921854838884</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.7914921854838886</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>4.598778658320001</v>
+        <v>11.75955371103911</v>
       </c>
       <c r="R3">
-        <v>41.38900792488</v>
+        <v>105.835983399352</v>
       </c>
       <c r="S3">
-        <v>0.3253020398827136</v>
+        <v>0.6010994262964036</v>
       </c>
       <c r="T3">
-        <v>0.3253020398827136</v>
+        <v>0.6010994262964036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.217234</v>
+      </c>
+      <c r="H4">
+        <v>0.651702</v>
+      </c>
+      <c r="I4">
+        <v>0.007422437841146218</v>
+      </c>
+      <c r="J4">
+        <v>0.007422437841146218</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>17.59249933333334</v>
-      </c>
-      <c r="H4">
-        <v>52.77749800000001</v>
-      </c>
-      <c r="I4">
-        <v>0.573844545710543</v>
-      </c>
-      <c r="J4">
-        <v>0.573844545710543</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09614899999999998</v>
+        <v>0.6684413333333333</v>
       </c>
       <c r="N4">
-        <v>0.288447</v>
+        <v>2.005324</v>
       </c>
       <c r="O4">
-        <v>0.2085078145161115</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.2085078145161115</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.691501218400667</v>
+        <v>0.1452081846053333</v>
       </c>
       <c r="R4">
-        <v>15.223510965606</v>
+        <v>1.306873661448</v>
       </c>
       <c r="S4">
-        <v>0.1196510720980962</v>
+        <v>0.007422437841146218</v>
       </c>
       <c r="T4">
-        <v>0.1196510720980962</v>
+        <v>0.007422437841146218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>17.59249933333334</v>
+        <v>0.021265</v>
       </c>
       <c r="H5">
-        <v>52.77749800000001</v>
+        <v>0.063795</v>
       </c>
       <c r="I5">
-        <v>0.573844545710543</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="J5">
-        <v>0.573844545710543</v>
+        <v>0.0007265812013403719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.36498</v>
+        <v>0.6684413333333333</v>
       </c>
       <c r="N5">
-        <v>1.09494</v>
+        <v>2.005324</v>
       </c>
       <c r="O5">
-        <v>0.7914921854838884</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.7914921854838886</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>6.420910406680002</v>
+        <v>0.01421440495333334</v>
       </c>
       <c r="R5">
-        <v>57.78819366012001</v>
+        <v>0.12792964458</v>
       </c>
       <c r="S5">
-        <v>0.4541934736124468</v>
+        <v>0.0007265812013403718</v>
       </c>
       <c r="T5">
-        <v>0.4541934736124469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.02822</v>
-      </c>
-      <c r="H6">
-        <v>0.08466</v>
-      </c>
-      <c r="I6">
-        <v>0.0009204998546891055</v>
-      </c>
-      <c r="J6">
-        <v>0.0009204998546891056</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.09614899999999998</v>
-      </c>
-      <c r="N6">
-        <v>0.288447</v>
-      </c>
-      <c r="O6">
-        <v>0.2085078145161115</v>
-      </c>
-      <c r="P6">
-        <v>0.2085078145161115</v>
-      </c>
-      <c r="Q6">
-        <v>0.00271332478</v>
-      </c>
-      <c r="R6">
-        <v>0.02441992301999999</v>
-      </c>
-      <c r="S6">
-        <v>0.0001919314129636236</v>
-      </c>
-      <c r="T6">
-        <v>0.0001919314129636236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02822</v>
-      </c>
-      <c r="H7">
-        <v>0.08466</v>
-      </c>
-      <c r="I7">
-        <v>0.0009204998546891055</v>
-      </c>
-      <c r="J7">
-        <v>0.0009204998546891056</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.36498</v>
-      </c>
-      <c r="N7">
-        <v>1.09494</v>
-      </c>
-      <c r="O7">
-        <v>0.7914921854838884</v>
-      </c>
-      <c r="P7">
-        <v>0.7914921854838886</v>
-      </c>
-      <c r="Q7">
-        <v>0.0102997356</v>
-      </c>
-      <c r="R7">
-        <v>0.0926976204</v>
-      </c>
-      <c r="S7">
-        <v>0.0007285684417254818</v>
-      </c>
-      <c r="T7">
-        <v>0.000728568441725482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.436453</v>
-      </c>
-      <c r="H8">
-        <v>1.309359</v>
-      </c>
-      <c r="I8">
-        <v>0.01423653164701007</v>
-      </c>
-      <c r="J8">
-        <v>0.01423653164701007</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.09614899999999998</v>
-      </c>
-      <c r="N8">
-        <v>0.288447</v>
-      </c>
-      <c r="O8">
-        <v>0.2085078145161115</v>
-      </c>
-      <c r="P8">
-        <v>0.2085078145161115</v>
-      </c>
-      <c r="Q8">
-        <v>0.041964519497</v>
-      </c>
-      <c r="R8">
-        <v>0.377680675473</v>
-      </c>
-      <c r="S8">
-        <v>0.002968428100007527</v>
-      </c>
-      <c r="T8">
-        <v>0.002968428100007528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.436453</v>
-      </c>
-      <c r="H9">
-        <v>1.309359</v>
-      </c>
-      <c r="I9">
-        <v>0.01423653164701007</v>
-      </c>
-      <c r="J9">
-        <v>0.01423653164701007</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.36498</v>
-      </c>
-      <c r="N9">
-        <v>1.09494</v>
-      </c>
-      <c r="O9">
-        <v>0.7914921854838884</v>
-      </c>
-      <c r="P9">
-        <v>0.7914921854838886</v>
-      </c>
-      <c r="Q9">
-        <v>0.15929661594</v>
-      </c>
-      <c r="R9">
-        <v>1.43366954346</v>
-      </c>
-      <c r="S9">
-        <v>0.01126810354700254</v>
-      </c>
-      <c r="T9">
-        <v>0.01126810354700255</v>
+        <v>0.0007265812013403719</v>
       </c>
     </row>
   </sheetData>
